--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -1609,12 +1609,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>integration_outcome_achieved_date</t>
+          <t>integration_outcome_type</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Date integration plan outcome acheived</t>
+          <t>Integration outcome type</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -1622,20 +1622,24 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Categorical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>integration_outcome_type</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>integration_outcome_type</t>
+          <t>integration_outcome_achieved_date</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Integration outcome type</t>
+          <t>Date integration plan outcome acheived</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -1643,14 +1647,10 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>integration_outcome_type</t>
-        </is>
-      </c>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -702,7 +702,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YYYY-MM</t>
+          <t>YYYY</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1217,12 +1217,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_family_composition</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Current family composition</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>current_family_composition</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>current_number_of_dependents_uk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>current_number_of_dependents_uk</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -689,12 +689,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>date_of_birth</t>
+          <t>year_of_birth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Date of birth</t>
+          <t>Year of birth</t>
         </is>
       </c>
       <c r="C8" t="b">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -689,12 +689,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>year_of_birth</t>
+          <t>date_of_birth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Year of birth</t>
+          <t>Date of birth</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -702,7 +702,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YYYY</t>
+          <t>YYYY-MM</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1217,12 +1217,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>current_family_composition</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Current family composition</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>current_family_composition</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_number_of_dependents_uk</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>current_number_of_dependents_uk</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -689,12 +689,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>date_of_birth</t>
+          <t>year_of_birth</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Date of birth</t>
+          <t>Year of birth</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -702,7 +702,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YYYY-MM</t>
+          <t>YYYY</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1217,12 +1217,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_family_composition</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Current family composition</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1235,14 +1235,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>current_family_composition</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>current_number_of_dependents_uk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>current_number_of_dependents_uk</t>
         </is>
       </c>
     </row>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -660,7 +660,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NINO</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NINO</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -702,7 +702,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>YYYY</t>
+          <t>year</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -723,14 +723,10 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -748,7 +744,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>String</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -769,7 +765,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -881,7 +877,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -902,14 +898,10 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>housing_entry_accomodation</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1018,7 +1010,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1130,14 +1122,10 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>nationality</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1155,14 +1143,10 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>referral_source</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1180,14 +1164,10 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>transgender</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1205,14 +1185,10 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>living_status</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1230,14 +1206,10 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>current_dependents_uk</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1255,14 +1227,10 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>List</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>current_number_of_dependents_uk</t>
-        </is>
-      </c>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1280,7 +1248,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1301,7 +1269,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1322,14 +1290,10 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>language_level_on_entry</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1347,14 +1311,10 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>highest_qualification_achieved</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1393,14 +1353,10 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1418,7 +1374,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Free Text (short)</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1439,7 +1395,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Free Text (short)</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1460,7 +1416,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Free Text (short)</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1481,14 +1437,10 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>economic_status</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1506,14 +1458,10 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1622,14 +1570,10 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>integration_outcome_type</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1647,7 +1591,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1668,14 +1612,10 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>integration_social</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1693,14 +1633,10 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>integration_comms_language</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1718,14 +1654,10 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>integration_digital</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1834,7 +1766,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1855,14 +1787,10 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>List</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>employment_outcome_type</t>
-        </is>
-      </c>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1971,14 +1899,10 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>employment_entry_outcome_type</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1996,7 +1920,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -2017,14 +1941,10 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Categorical</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>employment_entry_details</t>
-        </is>
-      </c>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2042,7 +1962,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Free Text (short)</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2063,7 +1983,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Free Text (short)</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2175,7 +2095,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -2287,7 +2207,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -153,8 +153,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="person" displayName="person" ref="A4:E11" headerRowCount="1">
-  <autoFilter ref="A4:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="person" displayName="person" ref="A4:E9" headerRowCount="1">
+  <autoFilter ref="A4:E9"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E22" headerRowCount="1">
-  <autoFilter ref="A4:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E24" headerRowCount="1">
+  <autoFilter ref="A4:E24"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -567,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,12 +647,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ni_number</t>
+          <t>year_of_birth</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NI Number</t>
+          <t>Year of birth</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -660,7 +660,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>year</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>temp_ni_number</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Temp NI number</t>
+          <t>Gender</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -681,7 +681,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -689,12 +689,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>year_of_birth</t>
+          <t>dispersal_area</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Year of birth</t>
+          <t>Dispersal area</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -702,7 +702,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -710,12 +710,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>date_started_service</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gender</t>
+          <t>Date started with service</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -723,52 +723,10 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>dispersal_area</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Dispersal area</t>
-        </is>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>date_started_service</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Date started with service</t>
-        </is>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1029,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,12 +1067,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nationality</t>
+          <t>ni_number</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nationality</t>
+          <t>NI Number</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -1122,7 +1080,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1130,12 +1088,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>referral_source</t>
+          <t>temp_ni_number</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Referral source</t>
+          <t>Temp NI number</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -1143,7 +1101,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1151,12 +1109,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>nationality</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Transgender</t>
+          <t>Nationality</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -1172,12 +1130,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>living_status</t>
+          <t>referral_source</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Living status</t>
+          <t>Referral source</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1193,12 +1151,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>transgender</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Transgender</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1214,12 +1172,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_number_of_dependents_uk</t>
+          <t>living_status</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Living status</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1227,7 +1185,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1235,12 +1193,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>date_arrived_in_uk</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Date arrived in UK</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1248,7 +1206,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1256,12 +1214,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>date_asylum_status_granted</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Date asylum status granted</t>
+          <t>Age profile of dependents in UK</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1269,7 +1227,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>list</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1277,12 +1235,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>date_arrived_in_uk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Language level on entry</t>
+          <t>Date arrived in UK</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1290,7 +1248,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1298,12 +1256,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>date_asylum_status_granted</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Highest qualification  level achieved</t>
+          <t>Date asylum status granted</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1311,7 +1269,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1319,12 +1277,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>age_finished_study</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Age when finished study</t>
+          <t>Language level on entry</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1332,7 +1290,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1340,12 +1298,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Employed in home country</t>
+          <t>Highest qualification  level achieved</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1361,12 +1319,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>occupation_type</t>
+          <t>age_finished_study</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Age when finished study</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1374,7 +1332,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1382,12 +1340,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>occupation_sector</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Employed in home country</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1395,7 +1353,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1403,12 +1361,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occupation_goal</t>
+          <t>occupation_type</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Occupation goal at baseline</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1424,12 +1382,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>economic_status</t>
+          <t>occupation_sector</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Main economic status at baseline</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1437,7 +1395,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1445,23 +1403,65 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>occupation_goal</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Occupation goal at baseline</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Main economic status at baseline</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>housing_baseline_accommodation</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>Accommodation type</t>
         </is>
       </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>categorical</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E24" headerRowCount="1">
-  <autoFilter ref="A4:E24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E23" headerRowCount="1">
+  <autoFilter ref="A4:E23"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -987,7 +987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,12 +1172,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>living_status</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Living status</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1193,12 +1193,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Age profile of dependents in UK</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>list</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1214,12 +1214,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>age_profile_of_dependents_uk</t>
+          <t>date_arrived_in_uk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Age profile of dependents in UK</t>
+          <t>Date arrived in UK</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>list</t>
+          <t>date</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1235,12 +1235,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>date_arrived_in_uk</t>
+          <t>date_asylum_status_granted</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Date arrived in UK</t>
+          <t>Date asylum status granted</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1256,12 +1256,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>date_asylum_status_granted</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Date asylum status granted</t>
+          <t>Language level on entry</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -1277,12 +1277,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Language level on entry</t>
+          <t>Highest qualification  level achieved</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1298,12 +1298,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>age_finished_study</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Highest qualification  level achieved</t>
+          <t>Age when finished study</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1319,12 +1319,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>age_finished_study</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Age when finished study</t>
+          <t>Employed in home country</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1340,12 +1340,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>occupation_type</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Employed in home country</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>string</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1361,12 +1361,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occupation_type</t>
+          <t>occupation_sector</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1382,12 +1382,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>occupation_sector</t>
+          <t>occupation_goal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Occupation goal at baseline</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1403,12 +1403,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>occupation_goal</t>
+          <t>economic_status</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Occupation goal at baseline</t>
+          <t>Main economic status at baseline</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>categorical</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1424,12 +1424,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>economic_status</t>
+          <t>housing_baseline_accommodation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Main economic status at baseline</t>
+          <t>Accommodation type</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1441,27 +1441,6 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Accommodation type</t>
-        </is>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -684,7 +684,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -859,7 +863,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>housing_entry_accomodation</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1125,7 +1133,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1146,7 +1158,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>referral_source</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1167,7 +1183,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>transgender</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1188,7 +1208,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>current_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1209,7 +1233,11 @@
           <t>list</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>current_number_of_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1272,7 +1300,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>language_level_on_entry</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1293,7 +1325,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>highest_qualification_achieved</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1335,7 +1371,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1419,7 +1459,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1440,7 +1484,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1552,7 +1600,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>integration_outcome_type</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1594,7 +1646,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>integration_social</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1615,7 +1671,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>integration_comms_language</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1636,7 +1696,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>integration_digital</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1769,7 +1833,11 @@
           <t>list</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>employment_outcome_type</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1881,7 +1949,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>employment_entry_outcome_type</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1923,7 +1995,11 @@
           <t>categorical</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>employment_entry_details</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E23" headerRowCount="1">
-  <autoFilter ref="A4:E23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E22" headerRowCount="1">
+  <autoFilter ref="A4:E22"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -995,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1096,12 +1096,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>temp_ni_number</t>
+          <t>nationality</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Temp NI number</t>
+          <t>Nationality</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -1109,20 +1109,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>nationality</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nationality</t>
+          <t>referral_source</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nationality</t>
+          <t>Referral source</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -1135,19 +1139,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nationality</t>
+          <t>referral_source</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>referral_source</t>
+          <t>transgender</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Referral source</t>
+          <t>Transgender</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1160,19 +1164,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>referral_source</t>
+          <t>transgender</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transgender</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1185,19 +1189,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Age profile of dependents in UK</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1205,24 +1209,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>categorical</t>
+          <t>list</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>current_number_of_dependents_uk</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>age_profile_of_dependents_uk</t>
+          <t>date_arrived_in_uk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Age profile of dependents in UK</t>
+          <t>Date arrived in UK</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1230,24 +1234,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>current_number_of_dependents_uk</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>date_arrived_in_uk</t>
+          <t>date_asylum_status_granted</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Date arrived in UK</t>
+          <t>Date asylum status granted</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1263,12 +1263,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>date_asylum_status_granted</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Date asylum status granted</t>
+          <t>Language level on entry</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1276,20 +1276,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>language_level_on_entry</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Language level on entry</t>
+          <t>Highest qualification  level achieved</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1302,19 +1306,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>age_finished_study</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Highest qualification  level achieved</t>
+          <t>Age when finished study</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1322,24 +1326,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>highest_qualification_achieved</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>age_finished_study</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Age when finished study</t>
+          <t>Employed in home country</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1347,20 +1347,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>occupation_type</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Employed in home country</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1368,24 +1372,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>occupation_type</t>
+          <t>occupation_sector</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1401,12 +1401,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occupation_sector</t>
+          <t>occupation_goal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Occupation goal at baseline</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1422,12 +1422,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>occupation_goal</t>
+          <t>economic_status</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Occupation goal at baseline</t>
+          <t>Main economic status at baseline</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1435,20 +1435,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>economic_status</t>
+          <t>housing_baseline_accommodation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Main economic status at baseline</t>
+          <t>Accommodation type</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1460,31 +1464,6 @@
         </is>
       </c>
       <c r="E22" t="inlineStr">
-        <is>
-          <t>economic_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Accommodation type</t>
-        </is>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
         <is>
           <t>housing_baseline_accommodation</t>
         </is>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E22" headerRowCount="1">
-  <autoFilter ref="A4:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E25" headerRowCount="1">
+  <autoFilter ref="A4:E25"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E10" headerRowCount="1">
-  <autoFilter ref="A4:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E12" headerRowCount="1">
+  <autoFilter ref="A4:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -995,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,7 +1020,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted either when submitting form: integration_plan or within 3 months after enrolment.</t>
+          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted within 3 months of enrolment.</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>current_number_of_dependents_uk</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
     </row>
@@ -1422,12 +1422,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>economic_status</t>
+          <t>prior_employment</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Main economic status at baseline</t>
+          <t>Prior employment</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1440,30 +1440,105 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>economic_status</t>
+          <t>prior_employment</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>employment_status</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Main economic status at baseline</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>employment_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>hours_of_employment</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hours of employment</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>hours_of_employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>eduction_training_status</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Eduction / training status</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>education_training_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>housing_baseline_accommodation</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>Accommodation type</t>
         </is>
       </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>categorical</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>housing_baseline_accommodation</t>
         </is>
@@ -1832,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,12 +2033,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>employment_entry_details</t>
+          <t>employment_entry_status</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Details of paid employment</t>
+          <t>Employment entry status</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -1976,19 +2051,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>employment_entry_details</t>
+          <t>employment_entry_status</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>employment_entry_occupation</t>
+          <t>hours_of_employment_entry</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Hours of employment</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1996,31 +2071,81 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>hours_of_employment_entry</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>eduction_training_status_entry</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eduction / training status</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>education_training_status_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>employment_entry_occupation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Occupation type</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>employment_entry_sector</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E25" headerRowCount="1">
-  <autoFilter ref="A4:E25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E27" headerRowCount="1">
+  <autoFilter ref="A4:E27"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E12" headerRowCount="1">
-  <autoFilter ref="A4:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E13" headerRowCount="1">
+  <autoFilter ref="A4:E13"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -251,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E6" headerRowCount="1">
-  <autoFilter ref="A4:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E12" headerRowCount="1">
+  <autoFilter ref="A4:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -995,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,12 +1497,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>eduction_training_status</t>
+          <t>wage_baseline</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Eduction / training status</t>
+          <t>Wage baseline</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1515,32 +1515,82 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>education_training_status</t>
+          <t>wage_baseline</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>eduction_training_status</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Eduction / training status</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>education_training_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>housing_baseline_accommodation</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Accommodation type</t>
         </is>
       </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>homelessness_baseline</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Homelessness status baseline</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>homelessness_baseline</t>
         </is>
       </c>
     </row>
@@ -1907,6 +1957,285 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="45" customWidth="1" min="1" max="1"/>
+    <col width="45" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="45" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>employment_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>This form outlines the required data for participants who achieve the employment OR self-employment entry outcome. A participant can only achieve either the employment or self-employment outcome. Data should be collected when achieving the employment entry outcome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Primary Key</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dimension</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>unique_id</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unique person identifier</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>employment_entry_outcome_type</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Type of employment entry outcome</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>employment_entry_outcome_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>date_employment_entry</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Date entered employment</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>employment_entry_status</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Employment entry status</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>employment_entry_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hours_of_employment_entry</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hours of employment</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>hours_of_employment_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>wage_employment_entry</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Wage employment entry</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>wage_employment_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>eduction_training_status_entry</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Eduction / training status</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>education_training_status_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>employment_entry_occupation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Occupation type</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>employment_entry_sector</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1925,14 +2254,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>employment_entry</t>
+          <t>employment_sustain</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This form outlines the required data for participants who achieve the employment OR self-employment entry outcome. A participant can only achieve either the employment or self-employment outcome. Data should be collected when achieving the employment entry outcome.</t>
+          <t>This form outlines the required data for participants who achieve the employment sustainment outcome. Data should be collected when achieving the employment sustainment outcome.</t>
         </is>
       </c>
     </row>
@@ -1987,12 +2316,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>employment_entry_outcome_type</t>
+          <t>employment_sustainment_date</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Type of employment entry outcome</t>
+          <t>Date employment sustainment outcome achieved</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -2000,24 +2329,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>employment_entry_outcome_type</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>date_employment_entry</t>
+          <t>employment_sustain_status</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Date entered employment</t>
+          <t>Employment status at sustainment outcome</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -2025,20 +2350,24 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>employment_sustain_status</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>employment_entry_status</t>
+          <t>hours_of_employment_sustain</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Employment entry status</t>
+          <t>Hours of employment at sustain</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -2051,19 +2380,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>employment_entry_status</t>
+          <t>hours_of_employment_sustain</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hours_of_employment_entry</t>
+          <t>wage_employment_sustain</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hours of employment</t>
+          <t>Wage employment at sustain</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -2076,19 +2405,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>hours_of_employment_entry</t>
+          <t>wage_employment_sustain</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eduction_training_status_entry</t>
+          <t>eduction_training_status_sustain</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Eduction / training status</t>
+          <t>Eduction / training status at sustain</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -2101,14 +2430,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>education_training_status_entry</t>
+          <t>education_training_status_sustain</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>employment_entry_occupation</t>
+          <t>employment_susatin_occupation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2129,7 +2458,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>employment_entry_sector</t>
+          <t>employment_sustain_sector</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2146,118 +2475,6 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="45" customWidth="1" min="2" max="2"/>
-    <col width="45" customWidth="1" min="3" max="3"/>
-    <col width="45" customWidth="1" min="4" max="4"/>
-    <col width="45" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>employment_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>This form outlines the required data for participants who achieve the employment sustainment outcome. Data should be collected when achieving the employment sustainment outcome.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Primary Key</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Dimension</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Unique person identifier</t>
-        </is>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>employment_sustainment_date</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Date employment sustainment outcome achieved</t>
-        </is>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E6" headerRowCount="1">
-  <autoFilter ref="A4:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E7" headerRowCount="1">
+  <autoFilter ref="A4:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -852,7 +852,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Accomodation type</t>
+          <t>Accomodation type entry</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,6 +980,31 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>housing_sustain_accomodation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Accomodation type sustainment</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>housing_sustain_accomodation</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1552,7 +1577,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Accommodation type</t>
+          <t>Accommodation type baseline</t>
         </is>
       </c>
       <c r="C26" t="b">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E27" headerRowCount="1">
-  <autoFilter ref="A4:E27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E28" headerRowCount="1">
+  <autoFilter ref="A4:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E13" headerRowCount="1">
-  <autoFilter ref="A4:E13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E14" headerRowCount="1">
+  <autoFilter ref="A4:E14"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -265,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E6" headerRowCount="1">
-  <autoFilter ref="A4:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E7" headerRowCount="1">
+  <autoFilter ref="A4:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -706,10 +706,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dispersal_area</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1020,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,12 +1175,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transgender</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1189,19 +1193,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>number_u18_HH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Number of children under 18 living in HH</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1209,24 +1213,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>current_dependents_uk</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>age_profile_of_dependents_uk</t>
+          <t>number_over_18_HH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Age profile of dependents in UK</t>
+          <t>Number of adults over 18 living in HH</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1234,24 +1234,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>age_profile_of_dependents_uk</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>date_arrived_in_uk</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Date arrived in UK</t>
+          <t>Age profile of dependents in UK</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1259,20 +1255,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>age_profile_of_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>date_asylum_status_granted</t>
+          <t>date_arrived_in_uk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Date asylum status granted</t>
+          <t>Date arrived in UK</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1288,12 +1288,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>date_asylum_status_granted</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Language level on entry</t>
+          <t>Date asylum status granted</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1301,24 +1301,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>language_level_on_entry</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Highest qualification  level achieved</t>
+          <t>Language level on entry</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1331,19 +1327,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>age_finished_study</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Age when finished study</t>
+          <t>Highest qualification  level achieved</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1351,20 +1347,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>highest_qualification_achieved</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>age_finished_study</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Employed in home country</t>
+          <t>Age when finished study</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1372,24 +1372,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>occupation_type</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Employed in home country</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1397,20 +1393,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>occupation_sector</t>
+          <t>occupation_type</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1426,12 +1426,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occupation_goal</t>
+          <t>occupation_sector</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Occupation goal at baseline</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1447,12 +1447,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>prior_employment</t>
+          <t>occupation_goal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Prior employment</t>
+          <t>Occupation goal at baseline</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1460,24 +1460,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>prior_employment</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>employment_status</t>
+          <t>prior_employment</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Main economic status at baseline</t>
+          <t>Prior employment</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1490,19 +1486,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>employment_status</t>
+          <t>prior_employment</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hours_of_employment</t>
+          <t>employment_status</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hours of employment</t>
+          <t>Main economic status at baseline</t>
         </is>
       </c>
       <c r="C23" t="b">
@@ -1515,19 +1511,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>hours_of_employment</t>
+          <t>employment_status</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wage_baseline</t>
+          <t>hours_of_employment</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wage baseline</t>
+          <t>Hours of employment</t>
         </is>
       </c>
       <c r="C24" t="b">
@@ -1540,19 +1536,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>wage_baseline</t>
+          <t>hours_of_employment</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>eduction_training_status</t>
+          <t>wage_baseline</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Eduction / training status</t>
+          <t>Wage baseline</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1565,19 +1561,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>education_training_status</t>
+          <t>wage_baseline</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>housing_baseline_accommodation</t>
+          <t>eduction_training_status</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Accommodation type baseline</t>
+          <t>Eduction / training status</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1590,30 +1586,55 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>housing_baseline_accommodation</t>
+          <t>education_training_status</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Accommodation type baseline</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>homelessness_baseline</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Homelessness status baseline</t>
         </is>
       </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>homelessness_baseline</t>
         </is>
@@ -1982,7 +2003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,12 +2129,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>employment_entry_status</t>
+          <t>primary_employment_entry_status</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Employment entry status</t>
+          <t>Primary employment entry status</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -2126,19 +2147,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>employment_entry_status</t>
+          <t>primary_employment_entry_status</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hours_of_employment_entry</t>
+          <t>secondary_employment_entry_status</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hours of employment</t>
+          <t>Seconday employment entry status</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -2151,19 +2172,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>hours_of_employment_entry</t>
+          <t>primary_employment_entry_status</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>wage_employment_entry</t>
+          <t>hours_of_employment_entry</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wage employment entry</t>
+          <t>Hours of employment</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -2176,19 +2197,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>wage_employment_entry</t>
+          <t>hours_of_employment_entry</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>eduction_training_status_entry</t>
+          <t>wage_employment_entry</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eduction / training status</t>
+          <t>Wage employment entry</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -2201,19 +2222,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>education_training_status_entry</t>
+          <t>wage_employment_entry</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>employment_entry_occupation</t>
+          <t>eduction_training_status_entry</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Eduction / training status</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -2221,31 +2242,56 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>education_training_status_entry</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>employment_entry_occupation</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Occupation type</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>employment_entry_sector</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2515,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2613,6 +2659,27 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>reason_for_disengagement</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Reason for disengagement</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E7" headerRowCount="1">
-  <autoFilter ref="A4:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E6" headerRowCount="1">
+  <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E28" headerRowCount="1">
-  <autoFilter ref="A4:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E22" headerRowCount="1">
+  <autoFilter ref="A4:E22"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E14" headerRowCount="1">
-  <autoFilter ref="A4:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E10" headerRowCount="1">
+  <autoFilter ref="A4:E10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -251,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E12" headerRowCount="1">
-  <autoFilter ref="A4:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E6" headerRowCount="1">
+  <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -265,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E7" headerRowCount="1">
-  <autoFilter ref="A4:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E6" headerRowCount="1">
+  <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -706,14 +706,10 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>dispersal_area</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -856,7 +852,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Accomodation type entry</t>
+          <t>Accomodation type</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -887,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,31 +981,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>housing_sustain_accomodation</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Accomodation type sustainment</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>housing_sustain_accomodation</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -1024,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,7 +1020,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted within 3 months of enrolment.</t>
+          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted either when submitting form: integration_plan or within 3 months after enrolment.</t>
         </is>
       </c>
     </row>
@@ -1175,12 +1146,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>transgender</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Transgender</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1193,19 +1164,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>transgender</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>number_u18_HH</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Number of children under 18 living in HH</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1213,20 +1184,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>current_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>number_over_18_HH</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Number of adults over 18 living in HH</t>
+          <t>Age profile of dependents in UK</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1234,20 +1209,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>current_number_of_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>age_profile_of_dependents_uk</t>
+          <t>date_arrived_in_uk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Age profile of dependents in UK</t>
+          <t>Date arrived in UK</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1255,24 +1234,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>age_profile_of_dependents_uk</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>date_arrived_in_uk</t>
+          <t>date_asylum_status_granted</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Date arrived in UK</t>
+          <t>Date asylum status granted</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1288,12 +1263,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>date_asylum_status_granted</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Date asylum status granted</t>
+          <t>Language level on entry</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1301,20 +1276,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>language_level_on_entry</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Language level on entry</t>
+          <t>Highest qualification  level achieved</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1327,19 +1306,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>age_finished_study</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Highest qualification  level achieved</t>
+          <t>Age when finished study</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1347,24 +1326,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>highest_qualification_achieved</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>age_finished_study</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Age when finished study</t>
+          <t>Employed in home country</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1372,20 +1347,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>occupation_type</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Employed in home country</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1393,24 +1372,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>occupation_type</t>
+          <t>occupation_sector</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1426,12 +1401,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occupation_sector</t>
+          <t>occupation_goal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Occupation goal at baseline</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1447,12 +1422,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>occupation_goal</t>
+          <t>economic_status</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Occupation goal at baseline</t>
+          <t>Main economic status at baseline</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1460,20 +1435,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>prior_employment</t>
+          <t>housing_baseline_accommodation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Prior employment</t>
+          <t>Accommodation type</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1486,157 +1465,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>prior_employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>employment_status</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Main economic status at baseline</t>
-        </is>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>employment_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>hours_of_employment</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hours of employment</t>
-        </is>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>hours_of_employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>wage_baseline</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Wage baseline</t>
-        </is>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>wage_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>eduction_training_status</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Eduction / training status</t>
-        </is>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>education_training_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
           <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Accommodation type baseline</t>
-        </is>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>homelessness_baseline</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Homelessness status baseline</t>
-        </is>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>homelessness_baseline</t>
         </is>
       </c>
     </row>
@@ -2003,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2129,12 +1958,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>primary_employment_entry_status</t>
+          <t>employment_entry_details</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Primary employment entry status</t>
+          <t>Details of paid employment</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -2147,19 +1976,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>primary_employment_entry_status</t>
+          <t>employment_entry_details</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>secondary_employment_entry_status</t>
+          <t>employment_entry_occupation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seconday employment entry status</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -2167,24 +1996,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>primary_employment_entry_status</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hours_of_employment_entry</t>
+          <t>employment_entry_sector</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hours of employment</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -2192,106 +2017,10 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>hours_of_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>wage_employment_entry</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Wage employment entry</t>
-        </is>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>wage_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>eduction_training_status_entry</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Eduction / training status</t>
-        </is>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>education_training_status_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>employment_entry_occupation</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Occupation type</t>
-        </is>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>employment_entry_sector</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2307,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2405,148 +2134,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employment_sustain_status</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Employment status at sustainment outcome</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>employment_sustain_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>hours_of_employment_sustain</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hours of employment at sustain</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>hours_of_employment_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>wage_employment_sustain</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wage employment at sustain</t>
-        </is>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>wage_employment_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>eduction_training_status_sustain</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Eduction / training status at sustain</t>
-        </is>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>education_training_status_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>employment_susatin_occupation</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Occupation type</t>
-        </is>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>employment_sustain_sector</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -2561,7 +2148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2659,27 +2246,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>reason_for_disengagement</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Reason for disengagement</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E6" headerRowCount="1">
-  <autoFilter ref="A4:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E7" headerRowCount="1">
+  <autoFilter ref="A4:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E22" headerRowCount="1">
-  <autoFilter ref="A4:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E28" headerRowCount="1">
+  <autoFilter ref="A4:E28"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E10" headerRowCount="1">
-  <autoFilter ref="A4:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E14" headerRowCount="1">
+  <autoFilter ref="A4:E14"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -251,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E6" headerRowCount="1">
-  <autoFilter ref="A4:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E12" headerRowCount="1">
+  <autoFilter ref="A4:E12"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -265,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E6" headerRowCount="1">
-  <autoFilter ref="A4:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E7" headerRowCount="1">
+  <autoFilter ref="A4:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -706,10 +706,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dispersal_area</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -852,7 +856,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Accomodation type</t>
+          <t>Accomodation type entry</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -883,7 +887,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,6 +985,31 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>housing_sustain_accomodation</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Accomodation type sustainment</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>housing_sustain_accomodation</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -995,7 +1024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,7 +1049,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted either when submitting form: integration_plan or within 3 months after enrolment.</t>
+          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted within 3 months of enrolment.</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1175,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transgender</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1164,19 +1193,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>transgender</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>number_u18_HH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Number of children under 18 living in HH</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1184,24 +1213,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>current_dependents_uk</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>age_profile_of_dependents_uk</t>
+          <t>number_over_18_HH</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Age profile of dependents in UK</t>
+          <t>Number of adults over 18 living in HH</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1209,24 +1234,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>current_number_of_dependents_uk</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>date_arrived_in_uk</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Date arrived in UK</t>
+          <t>Age profile of dependents in UK</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1234,20 +1255,24 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>age_profile_of_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>date_asylum_status_granted</t>
+          <t>date_arrived_in_uk</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Date asylum status granted</t>
+          <t>Date arrived in UK</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1263,12 +1288,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>date_asylum_status_granted</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Language level on entry</t>
+          <t>Date asylum status granted</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1276,24 +1301,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>language_level_on_entry</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Highest qualification  level achieved</t>
+          <t>Language level on entry</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1306,19 +1327,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>age_finished_study</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Age when finished study</t>
+          <t>Highest qualification  level achieved</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1326,20 +1347,24 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>highest_qualification_achieved</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>age_finished_study</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Employed in home country</t>
+          <t>Age when finished study</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1347,24 +1372,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>occupation_type</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Employed in home country</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1372,20 +1393,24 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>occupation_sector</t>
+          <t>occupation_type</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1401,12 +1426,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occupation_goal</t>
+          <t>occupation_sector</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Occupation goal at baseline</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1422,12 +1447,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>economic_status</t>
+          <t>occupation_goal</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Main economic status at baseline</t>
+          <t>Occupation goal at baseline</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1435,37 +1460,183 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>economic_status</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>prior_employment</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Prior employment</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>prior_employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>employment_status</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Main economic status at baseline</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>employment_status_baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hours_of_employment</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Hours of employment</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>hours_of_employment</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>wage_baseline</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Wage baseline</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>wage_baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>eduction_training_status</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Eduction / training status</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>education_training_status_baseline</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>housing_baseline_accommodation</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Accommodation type</t>
-        </is>
-      </c>
-      <c r="C22" t="b">
-        <v>0</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Accommodation type baseline</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>housing_baseline_accommodation</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>homelessness_baseline</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Homelessness status baseline</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>homelessness_baseline</t>
         </is>
       </c>
     </row>
@@ -1832,7 +2003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1958,12 +2129,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>employment_entry_details</t>
+          <t>primary_employment_entry_status</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Details of paid employment</t>
+          <t>Primary employment entry status</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -1976,19 +2147,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>employment_entry_details</t>
+          <t>primary_employment_entry_status</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>employment_entry_occupation</t>
+          <t>secondary_employment_entry_status</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Seconday employment entry status</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1996,31 +2167,131 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>primary_employment_entry_status</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>hours_of_employment_entry</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hours of employment</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>hours_of_employment_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>wage_employment_entry</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Wage employment entry</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>wage_employment_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>eduction_training_status_entry</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Eduction / training status</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>education_training_status_entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>employment_entry_occupation</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Occupation type</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>employment_entry_sector</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
       </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2036,7 +2307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2134,6 +2405,148 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>employment_sustain_status</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Employment status at sustainment outcome</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>employment_sustain_status</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>hours_of_employment_sustain</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hours of employment at sustain</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>hours_of_employment_sustain</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>wage_employment_sustain</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Wage employment at sustain</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>wage_employment_sustain</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>eduction_training_status_sustain</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Eduction / training status at sustain</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>education_training_status_sustain</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>employment_susatin_occupation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Occupation type</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>employment_sustain_sector</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sector</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -2148,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2246,6 +2659,27 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>reason_for_disengagement</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Reason for disengagement</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -181,8 +181,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E7" headerRowCount="1">
-  <autoFilter ref="A4:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="housing_sustain" displayName="housing_sustain" ref="A4:E6" headerRowCount="1">
+  <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -195,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E28" headerRowCount="1">
-  <autoFilter ref="A4:E28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="baseline" displayName="baseline" ref="A4:E22" headerRowCount="1">
+  <autoFilter ref="A4:E22"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -237,8 +237,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E14" headerRowCount="1">
-  <autoFilter ref="A4:E14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="employment_entry" displayName="employment_entry" ref="A4:E10" headerRowCount="1">
+  <autoFilter ref="A4:E10"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -251,8 +251,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E12" headerRowCount="1">
-  <autoFilter ref="A4:E12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="employment_sustain" displayName="employment_sustain" ref="A4:E6" headerRowCount="1">
+  <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -265,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E7" headerRowCount="1">
-  <autoFilter ref="A4:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="date_last_seen" displayName="date_last_seen" ref="A4:E6" headerRowCount="1">
+  <autoFilter ref="A4:E6"/>
   <tableColumns count="5">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Name"/>
@@ -706,14 +706,10 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>dispersal_area</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -856,7 +852,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Accomodation type entry</t>
+          <t>Accomodation type</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -887,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -985,31 +981,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>housing_sustain_accomodation</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Accomodation type sustainment</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>housing_sustain_accomodation</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -1024,7 +995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,7 +1020,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted within 3 months of enrolment.</t>
+          <t>This form outlines the required baseline data for all service users, the data is to be collected across interactions with participants and submitted either when submitting form: integration_plan or within 3 months after enrolment.</t>
         </is>
       </c>
     </row>
@@ -1175,12 +1146,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>transgender</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Current dependents in UK</t>
+          <t>Transgender</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -1193,19 +1164,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>current_dependents_uk</t>
+          <t>transgender</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>number_u18_HH</t>
+          <t>current_dependents_uk</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Number of children under 18 living in HH</t>
+          <t>Current dependents in UK</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -1213,20 +1184,24 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>current_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>number_over_18_HH</t>
+          <t>age_profile_of_dependents_uk</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Number of adults over 18 living in HH</t>
+          <t>Age profile of dependents in UK</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -1234,20 +1209,24 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>list</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>current_number_of_dependents_uk</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>age_profile_of_dependents_uk</t>
+          <t>date_arrived_in_uk</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Age profile of dependents in UK</t>
+          <t>Date arrived in UK</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -1255,24 +1234,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>list</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>age_profile_of_dependents_uk</t>
-        </is>
-      </c>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>date_arrived_in_uk</t>
+          <t>date_asylum_status_granted</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Date arrived in UK</t>
+          <t>Date asylum status granted</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -1288,12 +1263,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>date_asylum_status_granted</t>
+          <t>language_level_on_entry</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Date asylum status granted</t>
+          <t>Language level on entry</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -1301,20 +1276,24 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>language_level_on_entry</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Language level on entry</t>
+          <t>Highest qualification  level achieved</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -1327,19 +1306,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>language_level_on_entry</t>
+          <t>highest_qualification_achieved</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>highest_qualification_achieved</t>
+          <t>age_finished_study</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Highest qualification  level achieved</t>
+          <t>Age when finished study</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1347,24 +1326,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>highest_qualification_achieved</t>
-        </is>
-      </c>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>age_finished_study</t>
+          <t>employed_in_home_country</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Age when finished study</t>
+          <t>Employed in home country</t>
         </is>
       </c>
       <c r="C17" t="b">
@@ -1372,20 +1347,24 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>employed_in_home_country</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>employed_in_home_country</t>
+          <t>occupation_type</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Employed in home country</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1393,24 +1372,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>employed_in_home_country</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>occupation_type</t>
+          <t>occupation_sector</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Occupation type</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1426,12 +1401,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>occupation_sector</t>
+          <t>occupation_goal</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sector</t>
+          <t>Occupation goal at baseline</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1447,12 +1422,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>occupation_goal</t>
+          <t>economic_status</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Occupation goal at baseline</t>
+          <t>Main economic status at baseline</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1460,20 +1435,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>categorical</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>economic_status</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>prior_employment</t>
+          <t>housing_baseline_accommodation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Prior employment</t>
+          <t>Accommodation type</t>
         </is>
       </c>
       <c r="C22" t="b">
@@ -1486,157 +1465,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>prior_employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>employment_status</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Main economic status at baseline</t>
-        </is>
-      </c>
-      <c r="C23" t="b">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>employment_status_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>hours_of_employment</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Hours of employment</t>
-        </is>
-      </c>
-      <c r="C24" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>hours_of_employment</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>wage_baseline</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Wage baseline</t>
-        </is>
-      </c>
-      <c r="C25" t="b">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>wage_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>eduction_training_status</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Eduction / training status</t>
-        </is>
-      </c>
-      <c r="C26" t="b">
-        <v>0</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>education_training_status_baseline</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
           <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Accommodation type baseline</t>
-        </is>
-      </c>
-      <c r="C27" t="b">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>housing_baseline_accommodation</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>homelessness_baseline</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Homelessness status baseline</t>
-        </is>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>homelessness_baseline</t>
         </is>
       </c>
     </row>
@@ -2003,7 +1832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2129,12 +1958,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>primary_employment_entry_status</t>
+          <t>employment_entry_details</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Primary employment entry status</t>
+          <t>Details of paid employment</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -2147,19 +1976,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>primary_employment_entry_status</t>
+          <t>employment_entry_details</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>secondary_employment_entry_status</t>
+          <t>employment_entry_occupation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Seconday employment entry status</t>
+          <t>Occupation type</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -2167,24 +1996,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>primary_employment_entry_status</t>
-        </is>
-      </c>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>hours_of_employment_entry</t>
+          <t>employment_entry_sector</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hours of employment</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -2192,106 +2017,10 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>hours_of_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>wage_employment_entry</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Wage employment entry</t>
-        </is>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>wage_employment_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>eduction_training_status_entry</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Eduction / training status</t>
-        </is>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>education_training_status_entry</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>employment_entry_occupation</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Occupation type</t>
-        </is>
-      </c>
-      <c r="C13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>string</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>employment_entry_sector</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C14" t="b">
-        <v>0</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2307,7 +2036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2405,148 +2134,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>employment_sustain_status</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Employment status at sustainment outcome</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>employment_sustain_status</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>hours_of_employment_sustain</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Hours of employment at sustain</t>
-        </is>
-      </c>
-      <c r="C8" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>hours_of_employment_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>wage_employment_sustain</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wage employment at sustain</t>
-        </is>
-      </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>wage_employment_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>eduction_training_status_sustain</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Eduction / training status at sustain</t>
-        </is>
-      </c>
-      <c r="C10" t="b">
-        <v>0</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>categorical</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>education_training_status_sustain</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>employment_susatin_occupation</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Occupation type</t>
-        </is>
-      </c>
-      <c r="C11" t="b">
-        <v>0</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>employment_sustain_sector</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Sector</t>
-        </is>
-      </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
@@ -2561,7 +2148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2659,27 +2246,6 @@
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>reason_for_disengagement</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Reason for disengagement</t>
-        </is>
-      </c>
-      <c r="C7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/assets/spec/specification-records.xlsx
+++ b/assets/spec/specification-records.xlsx
@@ -731,7 +731,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>monthyear</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>housing_entry_accomodation</t>
+          <t>housing_accomodation</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>housing_sustain_accomodation</t>
+          <t>housing_accomodation</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>monthyear</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>monthyear</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>wage_baseline</t>
+          <t>wage</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>education_training_status_baseline</t>
+          <t>education_training_status</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>employment_outcome_type</t>
+          <t>intermediate_employment_outcome_type</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>primary_employment_entry_status</t>
+          <t>employment_status</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>primary_employment_entry_status</t>
+          <t>employment_status</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>hours_of_employment_entry</t>
+          <t>hours_of_employment</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>wage_employment_entry</t>
+          <t>wage</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>education_training_status_entry</t>
+          <t>education_training_status</t>
         </is>
       </c>
     </row>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>employment_sustain_status</t>
+          <t>employment_status</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>hours_of_employment_sustain</t>
+          <t>hours_of_employment</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>wage_employment_sustain</t>
+          <t>wage</t>
         </is>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>education_training_status_sustain</t>
+          <t>education_training_status</t>
         </is>
       </c>
     </row>
